--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_010_BasisSwapQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_010_BasisSwapQuotes.xlsx
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="D8" s="13" t="str">
         <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>X:\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+        <v>\\srv0001\Risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="12"/>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="F3" s="2" t="str">
         <f>_xll.qlSimpleQuote(E3,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L6M_Quote#0003</v>
+        <v>HKD1L6L6M_Quote#0002</v>
       </c>
       <c r="G3" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="F4" s="2" t="str">
         <f>_xll.qlSimpleQuote(E4,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L1Y_Quote#0003</v>
+        <v>HKD1L6L1Y_Quote#0002</v>
       </c>
       <c r="G4" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F5" s="2" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L15M_Quote#0003</v>
+        <v>HKD1L6L15M_Quote#0002</v>
       </c>
       <c r="G5" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="F6" s="2" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L18M_Quote#0003</v>
+        <v>HKD1L6L18M_Quote#0002</v>
       </c>
       <c r="G6" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="F7" s="2" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L21M_Quote#0003</v>
+        <v>HKD1L6L21M_Quote#0002</v>
       </c>
       <c r="G7" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="F8" s="2" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L2Y_Quote#0003</v>
+        <v>HKD1L6L2Y_Quote#0002</v>
       </c>
       <c r="G8" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="F9" s="2" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L3Y_Quote#0003</v>
+        <v>HKD1L6L3Y_Quote#0002</v>
       </c>
       <c r="G9" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="F10" s="2" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L4Y_Quote#0003</v>
+        <v>HKD1L6L4Y_Quote#0002</v>
       </c>
       <c r="G10" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="F11" s="2" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L5Y_Quote#0003</v>
+        <v>HKD1L6L5Y_Quote#0002</v>
       </c>
       <c r="G11" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="F12" s="2" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L6Y_Quote#0003</v>
+        <v>HKD1L6L6Y_Quote#0002</v>
       </c>
       <c r="G12" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="F13" s="2" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L7Y_Quote#0003</v>
+        <v>HKD1L6L7Y_Quote#0002</v>
       </c>
       <c r="G13" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="F14" s="2" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L8Y_Quote#0003</v>
+        <v>HKD1L6L8Y_Quote#0002</v>
       </c>
       <c r="G14" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="F15" s="2" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L9Y_Quote#0003</v>
+        <v>HKD1L6L9Y_Quote#0002</v>
       </c>
       <c r="G15" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="F16" s="2" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L10Y_Quote#0003</v>
+        <v>HKD1L6L10Y_Quote#0002</v>
       </c>
       <c r="G16" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="F17" s="2" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L11Y_Quote#0003</v>
+        <v>HKD1L6L11Y_Quote#0002</v>
       </c>
       <c r="G17" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="F18" s="2" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L12Y_Quote#0003</v>
+        <v>HKD1L6L12Y_Quote#0002</v>
       </c>
       <c r="G18" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="F19" s="2" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L13Y_Quote#0003</v>
+        <v>HKD1L6L13Y_Quote#0002</v>
       </c>
       <c r="G19" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="F20" s="2" t="str">
         <f>_xll.qlSimpleQuote(E20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L14Y_Quote#0003</v>
+        <v>HKD1L6L14Y_Quote#0002</v>
       </c>
       <c r="G20" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="F21" s="2" t="str">
         <f>_xll.qlSimpleQuote(E21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L15Y_Quote#0003</v>
+        <v>HKD1L6L15Y_Quote#0002</v>
       </c>
       <c r="G21" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="F22" s="2" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L16Y_Quote#0003</v>
+        <v>HKD1L6L16Y_Quote#0002</v>
       </c>
       <c r="G22" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="F23" s="2" t="str">
         <f>_xll.qlSimpleQuote(E23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L17Y_Quote#0003</v>
+        <v>HKD1L6L17Y_Quote#0002</v>
       </c>
       <c r="G23" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="F24" s="2" t="str">
         <f>_xll.qlSimpleQuote(E24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L18Y_Quote#0003</v>
+        <v>HKD1L6L18Y_Quote#0002</v>
       </c>
       <c r="G24" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="F25" s="2" t="str">
         <f>_xll.qlSimpleQuote(E25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L19Y_Quote#0003</v>
+        <v>HKD1L6L19Y_Quote#0002</v>
       </c>
       <c r="G25" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="F26" s="2" t="str">
         <f>_xll.qlSimpleQuote(E26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L20Y_Quote#0003</v>
+        <v>HKD1L6L20Y_Quote#0002</v>
       </c>
       <c r="G26" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="F27" s="2" t="str">
         <f>_xll.qlSimpleQuote(E27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L21Y_Quote#0003</v>
+        <v>HKD1L6L21Y_Quote#0002</v>
       </c>
       <c r="G27" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="F28" s="2" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L22Y_Quote#0003</v>
+        <v>HKD1L6L22Y_Quote#0002</v>
       </c>
       <c r="G28" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="F29" s="2" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L23Y_Quote#0003</v>
+        <v>HKD1L6L23Y_Quote#0002</v>
       </c>
       <c r="G29" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="F30" s="2" t="str">
         <f>_xll.qlSimpleQuote(E30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L24Y_Quote#0003</v>
+        <v>HKD1L6L24Y_Quote#0002</v>
       </c>
       <c r="G30" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="F31" s="2" t="str">
         <f>_xll.qlSimpleQuote(E31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L25Y_Quote#0003</v>
+        <v>HKD1L6L25Y_Quote#0002</v>
       </c>
       <c r="G31" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="F32" s="2" t="str">
         <f>_xll.qlSimpleQuote(E32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L26Y_Quote#0003</v>
+        <v>HKD1L6L26Y_Quote#0002</v>
       </c>
       <c r="G32" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="F33" s="2" t="str">
         <f>_xll.qlSimpleQuote(E33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L27Y_Quote#0003</v>
+        <v>HKD1L6L27Y_Quote#0002</v>
       </c>
       <c r="G33" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="F34" s="2" t="str">
         <f>_xll.qlSimpleQuote(E34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L28Y_Quote#0003</v>
+        <v>HKD1L6L28Y_Quote#0002</v>
       </c>
       <c r="G34" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="F35" s="2" t="str">
         <f>_xll.qlSimpleQuote(E35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L29Y_Quote#0003</v>
+        <v>HKD1L6L29Y_Quote#0002</v>
       </c>
       <c r="G35" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="F36" s="2" t="str">
         <f>_xll.qlSimpleQuote(E36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L30Y_Quote#0003</v>
+        <v>HKD1L6L30Y_Quote#0002</v>
       </c>
       <c r="G36" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="F37" s="2" t="str">
         <f>_xll.qlSimpleQuote(E37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L35Y_Quote#0003</v>
+        <v>HKD1L6L35Y_Quote#0002</v>
       </c>
       <c r="G37" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="F38" s="2" t="str">
         <f>_xll.qlSimpleQuote(E38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L40Y_Quote#0003</v>
+        <v>HKD1L6L40Y_Quote#0002</v>
       </c>
       <c r="G38" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="F39" s="2" t="str">
         <f>_xll.qlSimpleQuote(E39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L50Y_Quote#0003</v>
+        <v>HKD1L6L50Y_Quote#0002</v>
       </c>
       <c r="G39" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="F40" s="2" t="str">
         <f>_xll.qlSimpleQuote(E40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L60Y_Quote#0003</v>
+        <v>HKD1L6L60Y_Quote#0002</v>
       </c>
       <c r="G40" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="F3" s="2" t="str">
         <f>_xll.qlSimpleQuote(E3,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L6M_Quote#0003</v>
+        <v>HKD3L6L6M_Quote#0002</v>
       </c>
       <c r="G3" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="F4" s="2" t="str">
         <f>_xll.qlSimpleQuote(E4,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L1Y_Quote#0003</v>
+        <v>HKD3L6L1Y_Quote#0002</v>
       </c>
       <c r="G4" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="F5" s="2" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L15M_Quote#0003</v>
+        <v>HKD3L6L15M_Quote#0002</v>
       </c>
       <c r="G5" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -2603,7 +2603,7 @@
       </c>
       <c r="F6" s="2" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L18M_Quote#0003</v>
+        <v>HKD3L6L18M_Quote#0002</v>
       </c>
       <c r="G6" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="F7" s="2" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L21M_Quote#0003</v>
+        <v>HKD3L6L21M_Quote#0002</v>
       </c>
       <c r="G7" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="F8" s="2" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L2Y_Quote#0003</v>
+        <v>HKD3L6L2Y_Quote#0002</v>
       </c>
       <c r="G8" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="F9" s="2" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L3Y_Quote#0003</v>
+        <v>HKD3L6L3Y_Quote#0002</v>
       </c>
       <c r="G9" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="F10" s="2" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L4Y_Quote#0003</v>
+        <v>HKD3L6L4Y_Quote#0002</v>
       </c>
       <c r="G10" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="F11" s="2" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L5Y_Quote#0003</v>
+        <v>HKD3L6L5Y_Quote#0002</v>
       </c>
       <c r="G11" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="F12" s="2" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L6Y_Quote#0003</v>
+        <v>HKD3L6L6Y_Quote#0002</v>
       </c>
       <c r="G12" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="F13" s="2" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L7Y_Quote#0003</v>
+        <v>HKD3L6L7Y_Quote#0002</v>
       </c>
       <c r="G13" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="F14" s="2" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L8Y_Quote#0003</v>
+        <v>HKD3L6L8Y_Quote#0002</v>
       </c>
       <c r="G14" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="F15" s="2" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L9Y_Quote#0003</v>
+        <v>HKD3L6L9Y_Quote#0002</v>
       </c>
       <c r="G15" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="F16" s="2" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L10Y_Quote#0003</v>
+        <v>HKD3L6L10Y_Quote#0002</v>
       </c>
       <c r="G16" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="F17" s="2" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L11Y_Quote#0003</v>
+        <v>HKD3L6L11Y_Quote#0002</v>
       </c>
       <c r="G17" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="F18" s="2" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L12Y_Quote#0003</v>
+        <v>HKD3L6L12Y_Quote#0002</v>
       </c>
       <c r="G18" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="F19" s="2" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L13Y_Quote#0003</v>
+        <v>HKD3L6L13Y_Quote#0002</v>
       </c>
       <c r="G19" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="F20" s="2" t="str">
         <f>_xll.qlSimpleQuote(E20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L14Y_Quote#0003</v>
+        <v>HKD3L6L14Y_Quote#0002</v>
       </c>
       <c r="G20" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="F21" s="2" t="str">
         <f>_xll.qlSimpleQuote(E21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L15Y_Quote#0003</v>
+        <v>HKD3L6L15Y_Quote#0002</v>
       </c>
       <c r="G21" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -3080,7 +3080,7 @@
       </c>
       <c r="F22" s="2" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L16Y_Quote#0003</v>
+        <v>HKD3L6L16Y_Quote#0002</v>
       </c>
       <c r="G22" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="F23" s="2" t="str">
         <f>_xll.qlSimpleQuote(E23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L17Y_Quote#0003</v>
+        <v>HKD3L6L17Y_Quote#0002</v>
       </c>
       <c r="G23" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="F24" s="2" t="str">
         <f>_xll.qlSimpleQuote(E24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L18Y_Quote#0003</v>
+        <v>HKD3L6L18Y_Quote#0002</v>
       </c>
       <c r="G24" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="F25" s="2" t="str">
         <f>_xll.qlSimpleQuote(E25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L19Y_Quote#0003</v>
+        <v>HKD3L6L19Y_Quote#0002</v>
       </c>
       <c r="G25" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="F26" s="2" t="str">
         <f>_xll.qlSimpleQuote(E26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L20Y_Quote#0003</v>
+        <v>HKD3L6L20Y_Quote#0002</v>
       </c>
       <c r="G26" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="F27" s="2" t="str">
         <f>_xll.qlSimpleQuote(E27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L21Y_Quote#0003</v>
+        <v>HKD3L6L21Y_Quote#0002</v>
       </c>
       <c r="G27" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="F28" s="2" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L22Y_Quote#0003</v>
+        <v>HKD3L6L22Y_Quote#0002</v>
       </c>
       <c r="G28" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -3269,7 +3269,7 @@
       </c>
       <c r="F29" s="2" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L23Y_Quote#0003</v>
+        <v>HKD3L6L23Y_Quote#0002</v>
       </c>
       <c r="G29" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="F30" s="2" t="str">
         <f>_xll.qlSimpleQuote(E30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L24Y_Quote#0003</v>
+        <v>HKD3L6L24Y_Quote#0002</v>
       </c>
       <c r="G30" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="F31" s="2" t="str">
         <f>_xll.qlSimpleQuote(E31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L25Y_Quote#0003</v>
+        <v>HKD3L6L25Y_Quote#0002</v>
       </c>
       <c r="G31" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="F32" s="2" t="str">
         <f>_xll.qlSimpleQuote(E32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L26Y_Quote#0003</v>
+        <v>HKD3L6L26Y_Quote#0002</v>
       </c>
       <c r="G32" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="F33" s="2" t="str">
         <f>_xll.qlSimpleQuote(E33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L27Y_Quote#0003</v>
+        <v>HKD3L6L27Y_Quote#0002</v>
       </c>
       <c r="G33" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="F34" s="2" t="str">
         <f>_xll.qlSimpleQuote(E34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L28Y_Quote#0003</v>
+        <v>HKD3L6L28Y_Quote#0002</v>
       </c>
       <c r="G34" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="F35" s="2" t="str">
         <f>_xll.qlSimpleQuote(E35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L29Y_Quote#0003</v>
+        <v>HKD3L6L29Y_Quote#0002</v>
       </c>
       <c r="G35" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="F36" s="2" t="str">
         <f>_xll.qlSimpleQuote(E36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L30Y_Quote#0003</v>
+        <v>HKD3L6L30Y_Quote#0002</v>
       </c>
       <c r="G36" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="F37" s="2" t="str">
         <f>_xll.qlSimpleQuote(E37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L35Y_Quote#0003</v>
+        <v>HKD3L6L35Y_Quote#0002</v>
       </c>
       <c r="G37" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="F38" s="2" t="str">
         <f>_xll.qlSimpleQuote(E38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L40Y_Quote#0003</v>
+        <v>HKD3L6L40Y_Quote#0002</v>
       </c>
       <c r="G38" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="F39" s="2" t="str">
         <f>_xll.qlSimpleQuote(E39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L50Y_Quote#0003</v>
+        <v>HKD3L6L50Y_Quote#0002</v>
       </c>
       <c r="G39" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="F40" s="2" t="str">
         <f>_xll.qlSimpleQuote(E40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L60Y_Quote#0003</v>
+        <v>HKD3L6L60Y_Quote#0002</v>
       </c>
       <c r="G40" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="F3" s="2" t="str">
         <f>_xll.qlSimpleQuote(E3,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L6M_Quote#0003</v>
+        <v>HKD6L12L6M_Quote#0002</v>
       </c>
       <c r="G3" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="F4" s="2" t="str">
         <f>_xll.qlSimpleQuote(E4,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L1Y_Quote#0003</v>
+        <v>HKD6L12L1Y_Quote#0002</v>
       </c>
       <c r="G4" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -3720,7 +3720,7 @@
       </c>
       <c r="F5" s="2" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L15M_Quote#0003</v>
+        <v>HKD6L12L15M_Quote#0002</v>
       </c>
       <c r="G5" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="F6" s="2" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L18M_Quote#0003</v>
+        <v>HKD6L12L18M_Quote#0002</v>
       </c>
       <c r="G6" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -3774,7 +3774,7 @@
       </c>
       <c r="F7" s="2" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L21M_Quote#0003</v>
+        <v>HKD6L12L21M_Quote#0002</v>
       </c>
       <c r="G7" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F8" s="2" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L2Y_Quote#0003</v>
+        <v>HKD6L12L2Y_Quote#0002</v>
       </c>
       <c r="G8" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="F9" s="2" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L3Y_Quote#0003</v>
+        <v>HKD6L12L3Y_Quote#0002</v>
       </c>
       <c r="G9" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="F10" s="2" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L4Y_Quote#0003</v>
+        <v>HKD6L12L4Y_Quote#0002</v>
       </c>
       <c r="G10" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="F11" s="2" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L5Y_Quote#0003</v>
+        <v>HKD6L12L5Y_Quote#0002</v>
       </c>
       <c r="G11" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="F12" s="2" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L6Y_Quote#0003</v>
+        <v>HKD6L12L6Y_Quote#0002</v>
       </c>
       <c r="G12" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="F13" s="2" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L7Y_Quote#0003</v>
+        <v>HKD6L12L7Y_Quote#0002</v>
       </c>
       <c r="G13" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -4008,7 +4008,7 @@
       </c>
       <c r="F14" s="2" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L8Y_Quote#0003</v>
+        <v>HKD6L12L8Y_Quote#0002</v>
       </c>
       <c r="G14" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="F15" s="2" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L9Y_Quote#0003</v>
+        <v>HKD6L12L9Y_Quote#0002</v>
       </c>
       <c r="G15" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -4062,7 +4062,7 @@
       </c>
       <c r="F16" s="2" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L10Y_Quote#0003</v>
+        <v>HKD6L12L10Y_Quote#0002</v>
       </c>
       <c r="G16" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="F17" s="2" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L11Y_Quote#0003</v>
+        <v>HKD6L12L11Y_Quote#0002</v>
       </c>
       <c r="G17" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="F18" s="2" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L12Y_Quote#0003</v>
+        <v>HKD6L12L12Y_Quote#0002</v>
       </c>
       <c r="G18" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="F19" s="2" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L13Y_Quote#0003</v>
+        <v>HKD6L12L13Y_Quote#0002</v>
       </c>
       <c r="G19" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -4170,7 +4170,7 @@
       </c>
       <c r="F20" s="2" t="str">
         <f>_xll.qlSimpleQuote(E20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L14Y_Quote#0003</v>
+        <v>HKD6L12L14Y_Quote#0002</v>
       </c>
       <c r="G20" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="F21" s="2" t="str">
         <f>_xll.qlSimpleQuote(E21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L15Y_Quote#0003</v>
+        <v>HKD6L12L15Y_Quote#0002</v>
       </c>
       <c r="G21" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -4224,7 +4224,7 @@
       </c>
       <c r="F22" s="2" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L16Y_Quote#0003</v>
+        <v>HKD6L12L16Y_Quote#0002</v>
       </c>
       <c r="G22" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="F23" s="2" t="str">
         <f>_xll.qlSimpleQuote(E23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L17Y_Quote#0003</v>
+        <v>HKD6L12L17Y_Quote#0002</v>
       </c>
       <c r="G23" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="F24" s="2" t="str">
         <f>_xll.qlSimpleQuote(E24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L18Y_Quote#0003</v>
+        <v>HKD6L12L18Y_Quote#0002</v>
       </c>
       <c r="G24" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="F25" s="2" t="str">
         <f>_xll.qlSimpleQuote(E25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L19Y_Quote#0003</v>
+        <v>HKD6L12L19Y_Quote#0002</v>
       </c>
       <c r="G25" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="F26" s="2" t="str">
         <f>_xll.qlSimpleQuote(E26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L20Y_Quote#0003</v>
+        <v>HKD6L12L20Y_Quote#0002</v>
       </c>
       <c r="G26" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="F27" s="2" t="str">
         <f>_xll.qlSimpleQuote(E27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L21Y_Quote#0003</v>
+        <v>HKD6L12L21Y_Quote#0002</v>
       </c>
       <c r="G27" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -4386,7 +4386,7 @@
       </c>
       <c r="F28" s="2" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L22Y_Quote#0003</v>
+        <v>HKD6L12L22Y_Quote#0002</v>
       </c>
       <c r="G28" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="F29" s="2" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L23Y_Quote#0003</v>
+        <v>HKD6L12L23Y_Quote#0002</v>
       </c>
       <c r="G29" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -4440,7 +4440,7 @@
       </c>
       <c r="F30" s="2" t="str">
         <f>_xll.qlSimpleQuote(E30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L24Y_Quote#0003</v>
+        <v>HKD6L12L24Y_Quote#0002</v>
       </c>
       <c r="G30" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="F31" s="2" t="str">
         <f>_xll.qlSimpleQuote(E31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L25Y_Quote#0003</v>
+        <v>HKD6L12L25Y_Quote#0002</v>
       </c>
       <c r="G31" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="F32" s="2" t="str">
         <f>_xll.qlSimpleQuote(E32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L26Y_Quote#0003</v>
+        <v>HKD6L12L26Y_Quote#0002</v>
       </c>
       <c r="G32" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="F33" s="2" t="str">
         <f>_xll.qlSimpleQuote(E33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L27Y_Quote#0003</v>
+        <v>HKD6L12L27Y_Quote#0002</v>
       </c>
       <c r="G33" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -4548,7 +4548,7 @@
       </c>
       <c r="F34" s="2" t="str">
         <f>_xll.qlSimpleQuote(E34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L28Y_Quote#0003</v>
+        <v>HKD6L12L28Y_Quote#0002</v>
       </c>
       <c r="G34" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -4575,7 +4575,7 @@
       </c>
       <c r="F35" s="2" t="str">
         <f>_xll.qlSimpleQuote(E35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L29Y_Quote#0003</v>
+        <v>HKD6L12L29Y_Quote#0002</v>
       </c>
       <c r="G35" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -4602,7 +4602,7 @@
       </c>
       <c r="F36" s="2" t="str">
         <f>_xll.qlSimpleQuote(E36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L30Y_Quote#0003</v>
+        <v>HKD6L12L30Y_Quote#0002</v>
       </c>
       <c r="G36" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="F37" s="2" t="str">
         <f>_xll.qlSimpleQuote(E37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L35Y_Quote#0003</v>
+        <v>HKD6L12L35Y_Quote#0002</v>
       </c>
       <c r="G37" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="F38" s="2" t="str">
         <f>_xll.qlSimpleQuote(E38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L40Y_Quote#0003</v>
+        <v>HKD6L12L40Y_Quote#0002</v>
       </c>
       <c r="G38" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -4683,7 +4683,7 @@
       </c>
       <c r="F39" s="2" t="str">
         <f>_xll.qlSimpleQuote(E39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L50Y_Quote#0003</v>
+        <v>HKD6L12L50Y_Quote#0002</v>
       </c>
       <c r="G39" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -4710,7 +4710,7 @@
       </c>
       <c r="F40" s="2" t="str">
         <f>_xll.qlSimpleQuote(E40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L60Y_Quote#0003</v>
+        <v>HKD6L12L60Y_Quote#0002</v>
       </c>
       <c r="G40" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_010_BasisSwapQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_010_BasisSwapQuotes.xlsx
@@ -819,13 +819,15 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Feuil1"/>
+      <sheetName val="Menu"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <definedNames>
       <definedName name="qlSerializationPath"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1122,7 +1124,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1140,7 +1142,7 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1209,7 +1211,7 @@
       </c>
       <c r="D8" s="13" t="str">
         <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\Risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="12"/>
     </row>
@@ -1352,13 +1354,13 @@
         <f>Currency&amp;"_010_Sw"&amp;$C$4&amp;$D$4&amp;".xml"</f>
         <v>HKD_010_Sw1L6L.xml</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="37" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="38" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_010_Sw1L6L.xml</v>
       </c>
       <c r="H2" s="27"/>
     </row>
@@ -1381,7 +1383,7 @@
       </c>
       <c r="F3" s="2" t="str">
         <f>_xll.qlSimpleQuote(E3,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L6M_Quote#0002</v>
+        <v>HKD1L6L6M_Quote#0001</v>
       </c>
       <c r="G3" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -1408,7 +1410,7 @@
       </c>
       <c r="F4" s="2" t="str">
         <f>_xll.qlSimpleQuote(E4,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L1Y_Quote#0002</v>
+        <v>HKD1L6L1Y_Quote#0001</v>
       </c>
       <c r="G4" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -1435,7 +1437,7 @@
       </c>
       <c r="F5" s="2" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L15M_Quote#0002</v>
+        <v>HKD1L6L15M_Quote#0001</v>
       </c>
       <c r="G5" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -1462,7 +1464,7 @@
       </c>
       <c r="F6" s="2" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L18M_Quote#0002</v>
+        <v>HKD1L6L18M_Quote#0001</v>
       </c>
       <c r="G6" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -1489,7 +1491,7 @@
       </c>
       <c r="F7" s="2" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L21M_Quote#0002</v>
+        <v>HKD1L6L21M_Quote#0001</v>
       </c>
       <c r="G7" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -1516,7 +1518,7 @@
       </c>
       <c r="F8" s="2" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L2Y_Quote#0002</v>
+        <v>HKD1L6L2Y_Quote#0001</v>
       </c>
       <c r="G8" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -1552,7 +1554,7 @@
       </c>
       <c r="F9" s="2" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L3Y_Quote#0002</v>
+        <v>HKD1L6L3Y_Quote#0001</v>
       </c>
       <c r="G9" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -1588,7 +1590,7 @@
       </c>
       <c r="F10" s="2" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L4Y_Quote#0002</v>
+        <v>HKD1L6L4Y_Quote#0001</v>
       </c>
       <c r="G10" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -1624,7 +1626,7 @@
       </c>
       <c r="F11" s="2" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L5Y_Quote#0002</v>
+        <v>HKD1L6L5Y_Quote#0001</v>
       </c>
       <c r="G11" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -1660,7 +1662,7 @@
       </c>
       <c r="F12" s="2" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L6Y_Quote#0002</v>
+        <v>HKD1L6L6Y_Quote#0001</v>
       </c>
       <c r="G12" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -1696,7 +1698,7 @@
       </c>
       <c r="F13" s="2" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L7Y_Quote#0002</v>
+        <v>HKD1L6L7Y_Quote#0001</v>
       </c>
       <c r="G13" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -1723,7 +1725,7 @@
       </c>
       <c r="F14" s="2" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L8Y_Quote#0002</v>
+        <v>HKD1L6L8Y_Quote#0001</v>
       </c>
       <c r="G14" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -1750,7 +1752,7 @@
       </c>
       <c r="F15" s="2" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L9Y_Quote#0002</v>
+        <v>HKD1L6L9Y_Quote#0001</v>
       </c>
       <c r="G15" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -1777,7 +1779,7 @@
       </c>
       <c r="F16" s="2" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L10Y_Quote#0002</v>
+        <v>HKD1L6L10Y_Quote#0001</v>
       </c>
       <c r="G16" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -1804,7 +1806,7 @@
       </c>
       <c r="F17" s="2" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L11Y_Quote#0002</v>
+        <v>HKD1L6L11Y_Quote#0001</v>
       </c>
       <c r="G17" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -1831,7 +1833,7 @@
       </c>
       <c r="F18" s="2" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L12Y_Quote#0002</v>
+        <v>HKD1L6L12Y_Quote#0001</v>
       </c>
       <c r="G18" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -1858,7 +1860,7 @@
       </c>
       <c r="F19" s="2" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L13Y_Quote#0002</v>
+        <v>HKD1L6L13Y_Quote#0001</v>
       </c>
       <c r="G19" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -1885,7 +1887,7 @@
       </c>
       <c r="F20" s="2" t="str">
         <f>_xll.qlSimpleQuote(E20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L14Y_Quote#0002</v>
+        <v>HKD1L6L14Y_Quote#0001</v>
       </c>
       <c r="G20" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -1912,7 +1914,7 @@
       </c>
       <c r="F21" s="2" t="str">
         <f>_xll.qlSimpleQuote(E21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L15Y_Quote#0002</v>
+        <v>HKD1L6L15Y_Quote#0001</v>
       </c>
       <c r="G21" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -1939,7 +1941,7 @@
       </c>
       <c r="F22" s="2" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L16Y_Quote#0002</v>
+        <v>HKD1L6L16Y_Quote#0001</v>
       </c>
       <c r="G22" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -1966,7 +1968,7 @@
       </c>
       <c r="F23" s="2" t="str">
         <f>_xll.qlSimpleQuote(E23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L17Y_Quote#0002</v>
+        <v>HKD1L6L17Y_Quote#0001</v>
       </c>
       <c r="G23" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -1993,7 +1995,7 @@
       </c>
       <c r="F24" s="2" t="str">
         <f>_xll.qlSimpleQuote(E24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L18Y_Quote#0002</v>
+        <v>HKD1L6L18Y_Quote#0001</v>
       </c>
       <c r="G24" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -2020,7 +2022,7 @@
       </c>
       <c r="F25" s="2" t="str">
         <f>_xll.qlSimpleQuote(E25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L19Y_Quote#0002</v>
+        <v>HKD1L6L19Y_Quote#0001</v>
       </c>
       <c r="G25" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -2047,7 +2049,7 @@
       </c>
       <c r="F26" s="2" t="str">
         <f>_xll.qlSimpleQuote(E26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L20Y_Quote#0002</v>
+        <v>HKD1L6L20Y_Quote#0001</v>
       </c>
       <c r="G26" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -2074,7 +2076,7 @@
       </c>
       <c r="F27" s="2" t="str">
         <f>_xll.qlSimpleQuote(E27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L21Y_Quote#0002</v>
+        <v>HKD1L6L21Y_Quote#0001</v>
       </c>
       <c r="G27" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -2101,7 +2103,7 @@
       </c>
       <c r="F28" s="2" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L22Y_Quote#0002</v>
+        <v>HKD1L6L22Y_Quote#0001</v>
       </c>
       <c r="G28" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -2128,7 +2130,7 @@
       </c>
       <c r="F29" s="2" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L23Y_Quote#0002</v>
+        <v>HKD1L6L23Y_Quote#0001</v>
       </c>
       <c r="G29" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -2155,7 +2157,7 @@
       </c>
       <c r="F30" s="2" t="str">
         <f>_xll.qlSimpleQuote(E30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L24Y_Quote#0002</v>
+        <v>HKD1L6L24Y_Quote#0001</v>
       </c>
       <c r="G30" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -2182,7 +2184,7 @@
       </c>
       <c r="F31" s="2" t="str">
         <f>_xll.qlSimpleQuote(E31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L25Y_Quote#0002</v>
+        <v>HKD1L6L25Y_Quote#0001</v>
       </c>
       <c r="G31" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -2209,7 +2211,7 @@
       </c>
       <c r="F32" s="2" t="str">
         <f>_xll.qlSimpleQuote(E32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L26Y_Quote#0002</v>
+        <v>HKD1L6L26Y_Quote#0001</v>
       </c>
       <c r="G32" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -2236,7 +2238,7 @@
       </c>
       <c r="F33" s="2" t="str">
         <f>_xll.qlSimpleQuote(E33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L27Y_Quote#0002</v>
+        <v>HKD1L6L27Y_Quote#0001</v>
       </c>
       <c r="G33" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -2263,7 +2265,7 @@
       </c>
       <c r="F34" s="2" t="str">
         <f>_xll.qlSimpleQuote(E34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L28Y_Quote#0002</v>
+        <v>HKD1L6L28Y_Quote#0001</v>
       </c>
       <c r="G34" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -2290,7 +2292,7 @@
       </c>
       <c r="F35" s="2" t="str">
         <f>_xll.qlSimpleQuote(E35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L29Y_Quote#0002</v>
+        <v>HKD1L6L29Y_Quote#0001</v>
       </c>
       <c r="G35" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -2317,7 +2319,7 @@
       </c>
       <c r="F36" s="2" t="str">
         <f>_xll.qlSimpleQuote(E36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L30Y_Quote#0002</v>
+        <v>HKD1L6L30Y_Quote#0001</v>
       </c>
       <c r="G36" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -2344,7 +2346,7 @@
       </c>
       <c r="F37" s="2" t="str">
         <f>_xll.qlSimpleQuote(E37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L35Y_Quote#0002</v>
+        <v>HKD1L6L35Y_Quote#0001</v>
       </c>
       <c r="G37" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -2371,7 +2373,7 @@
       </c>
       <c r="F38" s="2" t="str">
         <f>_xll.qlSimpleQuote(E38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L40Y_Quote#0002</v>
+        <v>HKD1L6L40Y_Quote#0001</v>
       </c>
       <c r="G38" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -2398,7 +2400,7 @@
       </c>
       <c r="F39" s="2" t="str">
         <f>_xll.qlSimpleQuote(E39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L50Y_Quote#0002</v>
+        <v>HKD1L6L50Y_Quote#0001</v>
       </c>
       <c r="G39" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -2425,7 +2427,7 @@
       </c>
       <c r="F40" s="2" t="str">
         <f>_xll.qlSimpleQuote(E40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L60Y_Quote#0002</v>
+        <v>HKD1L6L60Y_Quote#0001</v>
       </c>
       <c r="G40" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -2493,13 +2495,13 @@
         <f>Currency&amp;"_010_Sw"&amp;$C$4&amp;$D$4&amp;".xml"</f>
         <v>HKD_010_Sw3L6L.xml</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="37" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="38" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_010_Sw3L6L.xml</v>
       </c>
       <c r="H2" s="27"/>
     </row>
@@ -2522,7 +2524,7 @@
       </c>
       <c r="F3" s="2" t="str">
         <f>_xll.qlSimpleQuote(E3,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L6M_Quote#0002</v>
+        <v>HKD3L6L6M_Quote#0001</v>
       </c>
       <c r="G3" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -2549,7 +2551,7 @@
       </c>
       <c r="F4" s="2" t="str">
         <f>_xll.qlSimpleQuote(E4,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L1Y_Quote#0002</v>
+        <v>HKD3L6L1Y_Quote#0001</v>
       </c>
       <c r="G4" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -2576,7 +2578,7 @@
       </c>
       <c r="F5" s="2" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L15M_Quote#0002</v>
+        <v>HKD3L6L15M_Quote#0001</v>
       </c>
       <c r="G5" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -2603,7 +2605,7 @@
       </c>
       <c r="F6" s="2" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L18M_Quote#0002</v>
+        <v>HKD3L6L18M_Quote#0001</v>
       </c>
       <c r="G6" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -2630,7 +2632,7 @@
       </c>
       <c r="F7" s="2" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L21M_Quote#0002</v>
+        <v>HKD3L6L21M_Quote#0001</v>
       </c>
       <c r="G7" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -2657,7 +2659,7 @@
       </c>
       <c r="F8" s="2" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L2Y_Quote#0002</v>
+        <v>HKD3L6L2Y_Quote#0001</v>
       </c>
       <c r="G8" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -2693,7 +2695,7 @@
       </c>
       <c r="F9" s="2" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L3Y_Quote#0002</v>
+        <v>HKD3L6L3Y_Quote#0001</v>
       </c>
       <c r="G9" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -2729,7 +2731,7 @@
       </c>
       <c r="F10" s="2" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L4Y_Quote#0002</v>
+        <v>HKD3L6L4Y_Quote#0001</v>
       </c>
       <c r="G10" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -2765,7 +2767,7 @@
       </c>
       <c r="F11" s="2" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L5Y_Quote#0002</v>
+        <v>HKD3L6L5Y_Quote#0001</v>
       </c>
       <c r="G11" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -2801,7 +2803,7 @@
       </c>
       <c r="F12" s="2" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L6Y_Quote#0002</v>
+        <v>HKD3L6L6Y_Quote#0001</v>
       </c>
       <c r="G12" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -2837,7 +2839,7 @@
       </c>
       <c r="F13" s="2" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L7Y_Quote#0002</v>
+        <v>HKD3L6L7Y_Quote#0001</v>
       </c>
       <c r="G13" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -2864,7 +2866,7 @@
       </c>
       <c r="F14" s="2" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L8Y_Quote#0002</v>
+        <v>HKD3L6L8Y_Quote#0001</v>
       </c>
       <c r="G14" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -2891,7 +2893,7 @@
       </c>
       <c r="F15" s="2" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L9Y_Quote#0002</v>
+        <v>HKD3L6L9Y_Quote#0001</v>
       </c>
       <c r="G15" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -2918,7 +2920,7 @@
       </c>
       <c r="F16" s="2" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L10Y_Quote#0002</v>
+        <v>HKD3L6L10Y_Quote#0001</v>
       </c>
       <c r="G16" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -2945,7 +2947,7 @@
       </c>
       <c r="F17" s="2" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L11Y_Quote#0002</v>
+        <v>HKD3L6L11Y_Quote#0001</v>
       </c>
       <c r="G17" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -2972,7 +2974,7 @@
       </c>
       <c r="F18" s="2" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L12Y_Quote#0002</v>
+        <v>HKD3L6L12Y_Quote#0001</v>
       </c>
       <c r="G18" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -2999,7 +3001,7 @@
       </c>
       <c r="F19" s="2" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L13Y_Quote#0002</v>
+        <v>HKD3L6L13Y_Quote#0001</v>
       </c>
       <c r="G19" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -3026,7 +3028,7 @@
       </c>
       <c r="F20" s="2" t="str">
         <f>_xll.qlSimpleQuote(E20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L14Y_Quote#0002</v>
+        <v>HKD3L6L14Y_Quote#0001</v>
       </c>
       <c r="G20" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -3053,7 +3055,7 @@
       </c>
       <c r="F21" s="2" t="str">
         <f>_xll.qlSimpleQuote(E21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L15Y_Quote#0002</v>
+        <v>HKD3L6L15Y_Quote#0001</v>
       </c>
       <c r="G21" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -3080,7 +3082,7 @@
       </c>
       <c r="F22" s="2" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L16Y_Quote#0002</v>
+        <v>HKD3L6L16Y_Quote#0001</v>
       </c>
       <c r="G22" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -3107,7 +3109,7 @@
       </c>
       <c r="F23" s="2" t="str">
         <f>_xll.qlSimpleQuote(E23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L17Y_Quote#0002</v>
+        <v>HKD3L6L17Y_Quote#0001</v>
       </c>
       <c r="G23" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -3134,7 +3136,7 @@
       </c>
       <c r="F24" s="2" t="str">
         <f>_xll.qlSimpleQuote(E24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L18Y_Quote#0002</v>
+        <v>HKD3L6L18Y_Quote#0001</v>
       </c>
       <c r="G24" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -3161,7 +3163,7 @@
       </c>
       <c r="F25" s="2" t="str">
         <f>_xll.qlSimpleQuote(E25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L19Y_Quote#0002</v>
+        <v>HKD3L6L19Y_Quote#0001</v>
       </c>
       <c r="G25" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -3188,7 +3190,7 @@
       </c>
       <c r="F26" s="2" t="str">
         <f>_xll.qlSimpleQuote(E26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L20Y_Quote#0002</v>
+        <v>HKD3L6L20Y_Quote#0001</v>
       </c>
       <c r="G26" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -3215,7 +3217,7 @@
       </c>
       <c r="F27" s="2" t="str">
         <f>_xll.qlSimpleQuote(E27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L21Y_Quote#0002</v>
+        <v>HKD3L6L21Y_Quote#0001</v>
       </c>
       <c r="G27" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -3242,7 +3244,7 @@
       </c>
       <c r="F28" s="2" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L22Y_Quote#0002</v>
+        <v>HKD3L6L22Y_Quote#0001</v>
       </c>
       <c r="G28" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -3269,7 +3271,7 @@
       </c>
       <c r="F29" s="2" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L23Y_Quote#0002</v>
+        <v>HKD3L6L23Y_Quote#0001</v>
       </c>
       <c r="G29" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -3296,7 +3298,7 @@
       </c>
       <c r="F30" s="2" t="str">
         <f>_xll.qlSimpleQuote(E30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L24Y_Quote#0002</v>
+        <v>HKD3L6L24Y_Quote#0001</v>
       </c>
       <c r="G30" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -3323,7 +3325,7 @@
       </c>
       <c r="F31" s="2" t="str">
         <f>_xll.qlSimpleQuote(E31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L25Y_Quote#0002</v>
+        <v>HKD3L6L25Y_Quote#0001</v>
       </c>
       <c r="G31" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -3350,7 +3352,7 @@
       </c>
       <c r="F32" s="2" t="str">
         <f>_xll.qlSimpleQuote(E32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L26Y_Quote#0002</v>
+        <v>HKD3L6L26Y_Quote#0001</v>
       </c>
       <c r="G32" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -3377,7 +3379,7 @@
       </c>
       <c r="F33" s="2" t="str">
         <f>_xll.qlSimpleQuote(E33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L27Y_Quote#0002</v>
+        <v>HKD3L6L27Y_Quote#0001</v>
       </c>
       <c r="G33" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -3404,7 +3406,7 @@
       </c>
       <c r="F34" s="2" t="str">
         <f>_xll.qlSimpleQuote(E34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L28Y_Quote#0002</v>
+        <v>HKD3L6L28Y_Quote#0001</v>
       </c>
       <c r="G34" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -3431,7 +3433,7 @@
       </c>
       <c r="F35" s="2" t="str">
         <f>_xll.qlSimpleQuote(E35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L29Y_Quote#0002</v>
+        <v>HKD3L6L29Y_Quote#0001</v>
       </c>
       <c r="G35" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -3458,7 +3460,7 @@
       </c>
       <c r="F36" s="2" t="str">
         <f>_xll.qlSimpleQuote(E36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L30Y_Quote#0002</v>
+        <v>HKD3L6L30Y_Quote#0001</v>
       </c>
       <c r="G36" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -3485,7 +3487,7 @@
       </c>
       <c r="F37" s="2" t="str">
         <f>_xll.qlSimpleQuote(E37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L35Y_Quote#0002</v>
+        <v>HKD3L6L35Y_Quote#0001</v>
       </c>
       <c r="G37" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -3512,7 +3514,7 @@
       </c>
       <c r="F38" s="2" t="str">
         <f>_xll.qlSimpleQuote(E38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L40Y_Quote#0002</v>
+        <v>HKD3L6L40Y_Quote#0001</v>
       </c>
       <c r="G38" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -3539,7 +3541,7 @@
       </c>
       <c r="F39" s="2" t="str">
         <f>_xll.qlSimpleQuote(E39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L50Y_Quote#0002</v>
+        <v>HKD3L6L50Y_Quote#0001</v>
       </c>
       <c r="G39" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -3566,7 +3568,7 @@
       </c>
       <c r="F40" s="2" t="str">
         <f>_xll.qlSimpleQuote(E40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L60Y_Quote#0002</v>
+        <v>HKD3L6L60Y_Quote#0001</v>
       </c>
       <c r="G40" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -3637,13 +3639,13 @@
         <f>Currency&amp;"_010_Sw"&amp;$C$7&amp;$D$7&amp;".xml"</f>
         <v>HKD_010_Sw6L12L.xml</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="37" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="38" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_010_Sw6L12L.xml</v>
       </c>
       <c r="H2" s="27"/>
     </row>
@@ -3666,7 +3668,7 @@
       </c>
       <c r="F3" s="2" t="str">
         <f>_xll.qlSimpleQuote(E3,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L6M_Quote#0002</v>
+        <v>HKD6L12L6M_Quote#0001</v>
       </c>
       <c r="G3" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -3693,7 +3695,7 @@
       </c>
       <c r="F4" s="2" t="str">
         <f>_xll.qlSimpleQuote(E4,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L1Y_Quote#0002</v>
+        <v>HKD6L12L1Y_Quote#0001</v>
       </c>
       <c r="G4" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -3720,7 +3722,7 @@
       </c>
       <c r="F5" s="2" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L15M_Quote#0002</v>
+        <v>HKD6L12L15M_Quote#0001</v>
       </c>
       <c r="G5" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -3747,7 +3749,7 @@
       </c>
       <c r="F6" s="2" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L18M_Quote#0002</v>
+        <v>HKD6L12L18M_Quote#0001</v>
       </c>
       <c r="G6" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -3774,7 +3776,7 @@
       </c>
       <c r="F7" s="2" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L21M_Quote#0002</v>
+        <v>HKD6L12L21M_Quote#0001</v>
       </c>
       <c r="G7" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -3801,7 +3803,7 @@
       </c>
       <c r="F8" s="2" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L2Y_Quote#0002</v>
+        <v>HKD6L12L2Y_Quote#0001</v>
       </c>
       <c r="G8" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -3837,7 +3839,7 @@
       </c>
       <c r="F9" s="2" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L3Y_Quote#0002</v>
+        <v>HKD6L12L3Y_Quote#0001</v>
       </c>
       <c r="G9" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -3873,7 +3875,7 @@
       </c>
       <c r="F10" s="2" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L4Y_Quote#0002</v>
+        <v>HKD6L12L4Y_Quote#0001</v>
       </c>
       <c r="G10" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -3909,7 +3911,7 @@
       </c>
       <c r="F11" s="2" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L5Y_Quote#0002</v>
+        <v>HKD6L12L5Y_Quote#0001</v>
       </c>
       <c r="G11" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -3945,7 +3947,7 @@
       </c>
       <c r="F12" s="2" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L6Y_Quote#0002</v>
+        <v>HKD6L12L6Y_Quote#0001</v>
       </c>
       <c r="G12" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -3981,7 +3983,7 @@
       </c>
       <c r="F13" s="2" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L7Y_Quote#0002</v>
+        <v>HKD6L12L7Y_Quote#0001</v>
       </c>
       <c r="G13" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -4008,7 +4010,7 @@
       </c>
       <c r="F14" s="2" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L8Y_Quote#0002</v>
+        <v>HKD6L12L8Y_Quote#0001</v>
       </c>
       <c r="G14" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -4035,7 +4037,7 @@
       </c>
       <c r="F15" s="2" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L9Y_Quote#0002</v>
+        <v>HKD6L12L9Y_Quote#0001</v>
       </c>
       <c r="G15" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -4062,7 +4064,7 @@
       </c>
       <c r="F16" s="2" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L10Y_Quote#0002</v>
+        <v>HKD6L12L10Y_Quote#0001</v>
       </c>
       <c r="G16" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -4089,7 +4091,7 @@
       </c>
       <c r="F17" s="2" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L11Y_Quote#0002</v>
+        <v>HKD6L12L11Y_Quote#0001</v>
       </c>
       <c r="G17" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -4116,7 +4118,7 @@
       </c>
       <c r="F18" s="2" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L12Y_Quote#0002</v>
+        <v>HKD6L12L12Y_Quote#0001</v>
       </c>
       <c r="G18" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -4143,7 +4145,7 @@
       </c>
       <c r="F19" s="2" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L13Y_Quote#0002</v>
+        <v>HKD6L12L13Y_Quote#0001</v>
       </c>
       <c r="G19" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -4170,7 +4172,7 @@
       </c>
       <c r="F20" s="2" t="str">
         <f>_xll.qlSimpleQuote(E20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L14Y_Quote#0002</v>
+        <v>HKD6L12L14Y_Quote#0001</v>
       </c>
       <c r="G20" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -4197,7 +4199,7 @@
       </c>
       <c r="F21" s="2" t="str">
         <f>_xll.qlSimpleQuote(E21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L15Y_Quote#0002</v>
+        <v>HKD6L12L15Y_Quote#0001</v>
       </c>
       <c r="G21" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -4224,7 +4226,7 @@
       </c>
       <c r="F22" s="2" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L16Y_Quote#0002</v>
+        <v>HKD6L12L16Y_Quote#0001</v>
       </c>
       <c r="G22" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -4251,7 +4253,7 @@
       </c>
       <c r="F23" s="2" t="str">
         <f>_xll.qlSimpleQuote(E23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L17Y_Quote#0002</v>
+        <v>HKD6L12L17Y_Quote#0001</v>
       </c>
       <c r="G23" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -4278,7 +4280,7 @@
       </c>
       <c r="F24" s="2" t="str">
         <f>_xll.qlSimpleQuote(E24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L18Y_Quote#0002</v>
+        <v>HKD6L12L18Y_Quote#0001</v>
       </c>
       <c r="G24" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -4305,7 +4307,7 @@
       </c>
       <c r="F25" s="2" t="str">
         <f>_xll.qlSimpleQuote(E25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L19Y_Quote#0002</v>
+        <v>HKD6L12L19Y_Quote#0001</v>
       </c>
       <c r="G25" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -4332,7 +4334,7 @@
       </c>
       <c r="F26" s="2" t="str">
         <f>_xll.qlSimpleQuote(E26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L20Y_Quote#0002</v>
+        <v>HKD6L12L20Y_Quote#0001</v>
       </c>
       <c r="G26" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -4359,7 +4361,7 @@
       </c>
       <c r="F27" s="2" t="str">
         <f>_xll.qlSimpleQuote(E27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L21Y_Quote#0002</v>
+        <v>HKD6L12L21Y_Quote#0001</v>
       </c>
       <c r="G27" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -4386,7 +4388,7 @@
       </c>
       <c r="F28" s="2" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L22Y_Quote#0002</v>
+        <v>HKD6L12L22Y_Quote#0001</v>
       </c>
       <c r="G28" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -4413,7 +4415,7 @@
       </c>
       <c r="F29" s="2" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L23Y_Quote#0002</v>
+        <v>HKD6L12L23Y_Quote#0001</v>
       </c>
       <c r="G29" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -4440,7 +4442,7 @@
       </c>
       <c r="F30" s="2" t="str">
         <f>_xll.qlSimpleQuote(E30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L24Y_Quote#0002</v>
+        <v>HKD6L12L24Y_Quote#0001</v>
       </c>
       <c r="G30" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -4467,7 +4469,7 @@
       </c>
       <c r="F31" s="2" t="str">
         <f>_xll.qlSimpleQuote(E31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L25Y_Quote#0002</v>
+        <v>HKD6L12L25Y_Quote#0001</v>
       </c>
       <c r="G31" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -4494,7 +4496,7 @@
       </c>
       <c r="F32" s="2" t="str">
         <f>_xll.qlSimpleQuote(E32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L26Y_Quote#0002</v>
+        <v>HKD6L12L26Y_Quote#0001</v>
       </c>
       <c r="G32" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -4521,7 +4523,7 @@
       </c>
       <c r="F33" s="2" t="str">
         <f>_xll.qlSimpleQuote(E33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L27Y_Quote#0002</v>
+        <v>HKD6L12L27Y_Quote#0001</v>
       </c>
       <c r="G33" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -4548,7 +4550,7 @@
       </c>
       <c r="F34" s="2" t="str">
         <f>_xll.qlSimpleQuote(E34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L28Y_Quote#0002</v>
+        <v>HKD6L12L28Y_Quote#0001</v>
       </c>
       <c r="G34" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -4575,7 +4577,7 @@
       </c>
       <c r="F35" s="2" t="str">
         <f>_xll.qlSimpleQuote(E35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L29Y_Quote#0002</v>
+        <v>HKD6L12L29Y_Quote#0001</v>
       </c>
       <c r="G35" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -4602,7 +4604,7 @@
       </c>
       <c r="F36" s="2" t="str">
         <f>_xll.qlSimpleQuote(E36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L30Y_Quote#0002</v>
+        <v>HKD6L12L30Y_Quote#0001</v>
       </c>
       <c r="G36" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -4629,7 +4631,7 @@
       </c>
       <c r="F37" s="2" t="str">
         <f>_xll.qlSimpleQuote(E37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L35Y_Quote#0002</v>
+        <v>HKD6L12L35Y_Quote#0001</v>
       </c>
       <c r="G37" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -4656,7 +4658,7 @@
       </c>
       <c r="F38" s="2" t="str">
         <f>_xll.qlSimpleQuote(E38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L40Y_Quote#0002</v>
+        <v>HKD6L12L40Y_Quote#0001</v>
       </c>
       <c r="G38" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -4683,7 +4685,7 @@
       </c>
       <c r="F39" s="2" t="str">
         <f>_xll.qlSimpleQuote(E39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L50Y_Quote#0002</v>
+        <v>HKD6L12L50Y_Quote#0001</v>
       </c>
       <c r="G39" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -4710,7 +4712,7 @@
       </c>
       <c r="F40" s="2" t="str">
         <f>_xll.qlSimpleQuote(E40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L60Y_Quote#0002</v>
+        <v>HKD6L12L60Y_Quote#0001</v>
       </c>
       <c r="G40" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_010_BasisSwapQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_010_BasisSwapQuotes.xlsx
@@ -12,9 +12,6 @@
     <sheet name="BasisSwap3M6M" sheetId="24" r:id="rId3"/>
     <sheet name="BasisSwapxM12M" sheetId="25" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$14</definedName>
     <definedName name="FileOverwrite">'General Settings'!$D$9</definedName>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="67">
   <si>
     <t>Currency</t>
   </si>
@@ -231,6 +228,9 @@
   </si>
   <si>
     <t>HKD</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -815,24 +815,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Menu"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1209,9 +1191,8 @@
       <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="13" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+      <c r="D8" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="E8" s="12"/>
     </row>
@@ -1360,7 +1341,7 @@
       </c>
       <c r="G2" s="38" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_010_Sw1L6L.xml</v>
+        <v/>
       </c>
       <c r="H2" s="27"/>
     </row>
@@ -2501,7 +2482,7 @@
       </c>
       <c r="G2" s="38" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_010_Sw3L6L.xml</v>
+        <v/>
       </c>
       <c r="H2" s="27"/>
     </row>
@@ -3645,7 +3626,7 @@
       </c>
       <c r="G2" s="38" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_010_Sw6L12L.xml</v>
+        <v/>
       </c>
       <c r="H2" s="27"/>
     </row>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_010_BasisSwapQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_010_BasisSwapQuotes.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="66">
   <si>
     <t>Currency</t>
   </si>
@@ -228,9 +228,6 @@
   </si>
   <si>
     <t>HKD</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1191,8 +1188,9 @@
       <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>66</v>
+      <c r="D8" s="13" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="12"/>
     </row>
@@ -1336,12 +1334,12 @@
         <v>HKD_010_Sw1L6L.xml</v>
       </c>
       <c r="F2" s="37" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="38" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="38" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="27"/>
     </row>
@@ -2477,12 +2475,12 @@
         <v>HKD_010_Sw3L6L.xml</v>
       </c>
       <c r="F2" s="37" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="38" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="38" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="27"/>
     </row>
@@ -3621,12 +3619,12 @@
         <v>HKD_010_Sw6L12L.xml</v>
       </c>
       <c r="F2" s="37" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="38" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="38" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="27"/>
     </row>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_010_BasisSwapQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_010_BasisSwapQuotes.xlsx
@@ -1103,7 +1103,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1121,7 +1121,7 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Nov  6 2013 01:01:46</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="D8" s="13" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="12"/>
     </row>
@@ -1333,13 +1333,13 @@
         <f>Currency&amp;"_010_Sw"&amp;$C$4&amp;$D$4&amp;".xml"</f>
         <v>HKD_010_Sw1L6L.xml</v>
       </c>
-      <c r="F2" s="37" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G2" s="38" t="e">
+      <c r="F2" s="37">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,,Serialize),"---")</f>
+        <v>38</v>
+      </c>
+      <c r="G2" s="38" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H2" s="27"/>
     </row>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="F3" s="2" t="str">
         <f>_xll.qlSimpleQuote(E3,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L6M_Quote#0001</v>
+        <v>HKD1L6L6M_Quote#0002</v>
       </c>
       <c r="G3" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="F4" s="2" t="str">
         <f>_xll.qlSimpleQuote(E4,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L1Y_Quote#0001</v>
+        <v>HKD1L6L1Y_Quote#0002</v>
       </c>
       <c r="G4" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="F5" s="2" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L15M_Quote#0001</v>
+        <v>HKD1L6L15M_Quote#0002</v>
       </c>
       <c r="G5" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="F6" s="2" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L18M_Quote#0001</v>
+        <v>HKD1L6L18M_Quote#0002</v>
       </c>
       <c r="G6" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="F7" s="2" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L21M_Quote#0001</v>
+        <v>HKD1L6L21M_Quote#0002</v>
       </c>
       <c r="G7" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="F8" s="2" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L2Y_Quote#0001</v>
+        <v>HKD1L6L2Y_Quote#0002</v>
       </c>
       <c r="G8" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="F9" s="2" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L3Y_Quote#0001</v>
+        <v>HKD1L6L3Y_Quote#0002</v>
       </c>
       <c r="G9" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="F10" s="2" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L4Y_Quote#0001</v>
+        <v>HKD1L6L4Y_Quote#0002</v>
       </c>
       <c r="G10" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="F11" s="2" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L5Y_Quote#0001</v>
+        <v>HKD1L6L5Y_Quote#0002</v>
       </c>
       <c r="G11" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="F12" s="2" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L6Y_Quote#0001</v>
+        <v>HKD1L6L6Y_Quote#0002</v>
       </c>
       <c r="G12" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F13" s="2" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L7Y_Quote#0001</v>
+        <v>HKD1L6L7Y_Quote#0002</v>
       </c>
       <c r="G13" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="F14" s="2" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L8Y_Quote#0001</v>
+        <v>HKD1L6L8Y_Quote#0002</v>
       </c>
       <c r="G14" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="F15" s="2" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L9Y_Quote#0001</v>
+        <v>HKD1L6L9Y_Quote#0002</v>
       </c>
       <c r="G15" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="F16" s="2" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L10Y_Quote#0001</v>
+        <v>HKD1L6L10Y_Quote#0002</v>
       </c>
       <c r="G16" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="F17" s="2" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L11Y_Quote#0001</v>
+        <v>HKD1L6L11Y_Quote#0002</v>
       </c>
       <c r="G17" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="F18" s="2" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L12Y_Quote#0001</v>
+        <v>HKD1L6L12Y_Quote#0002</v>
       </c>
       <c r="G18" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="F19" s="2" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L13Y_Quote#0001</v>
+        <v>HKD1L6L13Y_Quote#0002</v>
       </c>
       <c r="G19" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="F20" s="2" t="str">
         <f>_xll.qlSimpleQuote(E20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L14Y_Quote#0001</v>
+        <v>HKD1L6L14Y_Quote#0002</v>
       </c>
       <c r="G20" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="F21" s="2" t="str">
         <f>_xll.qlSimpleQuote(E21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L15Y_Quote#0001</v>
+        <v>HKD1L6L15Y_Quote#0002</v>
       </c>
       <c r="G21" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -1920,7 +1920,7 @@
       </c>
       <c r="F22" s="2" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L16Y_Quote#0001</v>
+        <v>HKD1L6L16Y_Quote#0002</v>
       </c>
       <c r="G22" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="F23" s="2" t="str">
         <f>_xll.qlSimpleQuote(E23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L17Y_Quote#0001</v>
+        <v>HKD1L6L17Y_Quote#0002</v>
       </c>
       <c r="G23" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="F24" s="2" t="str">
         <f>_xll.qlSimpleQuote(E24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L18Y_Quote#0001</v>
+        <v>HKD1L6L18Y_Quote#0002</v>
       </c>
       <c r="G24" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="F25" s="2" t="str">
         <f>_xll.qlSimpleQuote(E25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L19Y_Quote#0001</v>
+        <v>HKD1L6L19Y_Quote#0002</v>
       </c>
       <c r="G25" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="F26" s="2" t="str">
         <f>_xll.qlSimpleQuote(E26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L20Y_Quote#0001</v>
+        <v>HKD1L6L20Y_Quote#0002</v>
       </c>
       <c r="G26" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="F27" s="2" t="str">
         <f>_xll.qlSimpleQuote(E27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L21Y_Quote#0001</v>
+        <v>HKD1L6L21Y_Quote#0002</v>
       </c>
       <c r="G27" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="F28" s="2" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L22Y_Quote#0001</v>
+        <v>HKD1L6L22Y_Quote#0002</v>
       </c>
       <c r="G28" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="F29" s="2" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L23Y_Quote#0001</v>
+        <v>HKD1L6L23Y_Quote#0002</v>
       </c>
       <c r="G29" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="F30" s="2" t="str">
         <f>_xll.qlSimpleQuote(E30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L24Y_Quote#0001</v>
+        <v>HKD1L6L24Y_Quote#0002</v>
       </c>
       <c r="G30" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="F31" s="2" t="str">
         <f>_xll.qlSimpleQuote(E31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L25Y_Quote#0001</v>
+        <v>HKD1L6L25Y_Quote#0002</v>
       </c>
       <c r="G31" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="F32" s="2" t="str">
         <f>_xll.qlSimpleQuote(E32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L26Y_Quote#0001</v>
+        <v>HKD1L6L26Y_Quote#0002</v>
       </c>
       <c r="G32" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="F33" s="2" t="str">
         <f>_xll.qlSimpleQuote(E33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L27Y_Quote#0001</v>
+        <v>HKD1L6L27Y_Quote#0002</v>
       </c>
       <c r="G33" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="F34" s="2" t="str">
         <f>_xll.qlSimpleQuote(E34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L28Y_Quote#0001</v>
+        <v>HKD1L6L28Y_Quote#0002</v>
       </c>
       <c r="G34" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="F35" s="2" t="str">
         <f>_xll.qlSimpleQuote(E35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L29Y_Quote#0001</v>
+        <v>HKD1L6L29Y_Quote#0002</v>
       </c>
       <c r="G35" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -2298,7 +2298,7 @@
       </c>
       <c r="F36" s="2" t="str">
         <f>_xll.qlSimpleQuote(E36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L30Y_Quote#0001</v>
+        <v>HKD1L6L30Y_Quote#0002</v>
       </c>
       <c r="G36" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="F37" s="2" t="str">
         <f>_xll.qlSimpleQuote(E37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L35Y_Quote#0001</v>
+        <v>HKD1L6L35Y_Quote#0002</v>
       </c>
       <c r="G37" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="F38" s="2" t="str">
         <f>_xll.qlSimpleQuote(E38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L40Y_Quote#0001</v>
+        <v>HKD1L6L40Y_Quote#0002</v>
       </c>
       <c r="G38" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="F39" s="2" t="str">
         <f>_xll.qlSimpleQuote(E39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L50Y_Quote#0001</v>
+        <v>HKD1L6L50Y_Quote#0002</v>
       </c>
       <c r="G39" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="F40" s="2" t="str">
         <f>_xll.qlSimpleQuote(E40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1L6L60Y_Quote#0001</v>
+        <v>HKD1L6L60Y_Quote#0002</v>
       </c>
       <c r="G40" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -2474,13 +2474,13 @@
         <f>Currency&amp;"_010_Sw"&amp;$C$4&amp;$D$4&amp;".xml"</f>
         <v>HKD_010_Sw3L6L.xml</v>
       </c>
-      <c r="F2" s="37" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G2" s="38" t="e">
+      <c r="F2" s="37">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,,Serialize),"---")</f>
+        <v>38</v>
+      </c>
+      <c r="G2" s="38" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H2" s="27"/>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="F3" s="2" t="str">
         <f>_xll.qlSimpleQuote(E3,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L6M_Quote#0001</v>
+        <v>HKD3L6L6M_Quote#0002</v>
       </c>
       <c r="G3" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="F4" s="2" t="str">
         <f>_xll.qlSimpleQuote(E4,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L1Y_Quote#0001</v>
+        <v>HKD3L6L1Y_Quote#0002</v>
       </c>
       <c r="G4" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="F5" s="2" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L15M_Quote#0001</v>
+        <v>HKD3L6L15M_Quote#0002</v>
       </c>
       <c r="G5" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="F6" s="2" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L18M_Quote#0001</v>
+        <v>HKD3L6L18M_Quote#0002</v>
       </c>
       <c r="G6" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="F7" s="2" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L21M_Quote#0001</v>
+        <v>HKD3L6L21M_Quote#0002</v>
       </c>
       <c r="G7" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="F8" s="2" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L2Y_Quote#0001</v>
+        <v>HKD3L6L2Y_Quote#0002</v>
       </c>
       <c r="G8" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="F9" s="2" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L3Y_Quote#0001</v>
+        <v>HKD3L6L3Y_Quote#0002</v>
       </c>
       <c r="G9" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="F10" s="2" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L4Y_Quote#0001</v>
+        <v>HKD3L6L4Y_Quote#0002</v>
       </c>
       <c r="G10" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="F11" s="2" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L5Y_Quote#0001</v>
+        <v>HKD3L6L5Y_Quote#0002</v>
       </c>
       <c r="G11" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="F12" s="2" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L6Y_Quote#0001</v>
+        <v>HKD3L6L6Y_Quote#0002</v>
       </c>
       <c r="G12" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="F13" s="2" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L7Y_Quote#0001</v>
+        <v>HKD3L6L7Y_Quote#0002</v>
       </c>
       <c r="G13" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="F14" s="2" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L8Y_Quote#0001</v>
+        <v>HKD3L6L8Y_Quote#0002</v>
       </c>
       <c r="G14" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="F15" s="2" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L9Y_Quote#0001</v>
+        <v>HKD3L6L9Y_Quote#0002</v>
       </c>
       <c r="G15" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="F16" s="2" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L10Y_Quote#0001</v>
+        <v>HKD3L6L10Y_Quote#0002</v>
       </c>
       <c r="G16" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="F17" s="2" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L11Y_Quote#0001</v>
+        <v>HKD3L6L11Y_Quote#0002</v>
       </c>
       <c r="G17" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="F18" s="2" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L12Y_Quote#0001</v>
+        <v>HKD3L6L12Y_Quote#0002</v>
       </c>
       <c r="G18" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="F19" s="2" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L13Y_Quote#0001</v>
+        <v>HKD3L6L13Y_Quote#0002</v>
       </c>
       <c r="G19" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="F20" s="2" t="str">
         <f>_xll.qlSimpleQuote(E20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L14Y_Quote#0001</v>
+        <v>HKD3L6L14Y_Quote#0002</v>
       </c>
       <c r="G20" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="F21" s="2" t="str">
         <f>_xll.qlSimpleQuote(E21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L15Y_Quote#0001</v>
+        <v>HKD3L6L15Y_Quote#0002</v>
       </c>
       <c r="G21" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="F22" s="2" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L16Y_Quote#0001</v>
+        <v>HKD3L6L16Y_Quote#0002</v>
       </c>
       <c r="G22" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="F23" s="2" t="str">
         <f>_xll.qlSimpleQuote(E23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L17Y_Quote#0001</v>
+        <v>HKD3L6L17Y_Quote#0002</v>
       </c>
       <c r="G23" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="F24" s="2" t="str">
         <f>_xll.qlSimpleQuote(E24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L18Y_Quote#0001</v>
+        <v>HKD3L6L18Y_Quote#0002</v>
       </c>
       <c r="G24" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="F25" s="2" t="str">
         <f>_xll.qlSimpleQuote(E25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L19Y_Quote#0001</v>
+        <v>HKD3L6L19Y_Quote#0002</v>
       </c>
       <c r="G25" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="F26" s="2" t="str">
         <f>_xll.qlSimpleQuote(E26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L20Y_Quote#0001</v>
+        <v>HKD3L6L20Y_Quote#0002</v>
       </c>
       <c r="G26" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="F27" s="2" t="str">
         <f>_xll.qlSimpleQuote(E27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L21Y_Quote#0001</v>
+        <v>HKD3L6L21Y_Quote#0002</v>
       </c>
       <c r="G27" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="F28" s="2" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L22Y_Quote#0001</v>
+        <v>HKD3L6L22Y_Quote#0002</v>
       </c>
       <c r="G28" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="F29" s="2" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L23Y_Quote#0001</v>
+        <v>HKD3L6L23Y_Quote#0002</v>
       </c>
       <c r="G29" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="F30" s="2" t="str">
         <f>_xll.qlSimpleQuote(E30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L24Y_Quote#0001</v>
+        <v>HKD3L6L24Y_Quote#0002</v>
       </c>
       <c r="G30" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="F31" s="2" t="str">
         <f>_xll.qlSimpleQuote(E31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L25Y_Quote#0001</v>
+        <v>HKD3L6L25Y_Quote#0002</v>
       </c>
       <c r="G31" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="F32" s="2" t="str">
         <f>_xll.qlSimpleQuote(E32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L26Y_Quote#0001</v>
+        <v>HKD3L6L26Y_Quote#0002</v>
       </c>
       <c r="G32" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -3358,7 +3358,7 @@
       </c>
       <c r="F33" s="2" t="str">
         <f>_xll.qlSimpleQuote(E33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L27Y_Quote#0001</v>
+        <v>HKD3L6L27Y_Quote#0002</v>
       </c>
       <c r="G33" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="F34" s="2" t="str">
         <f>_xll.qlSimpleQuote(E34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L28Y_Quote#0001</v>
+        <v>HKD3L6L28Y_Quote#0002</v>
       </c>
       <c r="G34" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="F35" s="2" t="str">
         <f>_xll.qlSimpleQuote(E35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L29Y_Quote#0001</v>
+        <v>HKD3L6L29Y_Quote#0002</v>
       </c>
       <c r="G35" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="F36" s="2" t="str">
         <f>_xll.qlSimpleQuote(E36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L30Y_Quote#0001</v>
+        <v>HKD3L6L30Y_Quote#0002</v>
       </c>
       <c r="G36" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="F37" s="2" t="str">
         <f>_xll.qlSimpleQuote(E37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L35Y_Quote#0001</v>
+        <v>HKD3L6L35Y_Quote#0002</v>
       </c>
       <c r="G37" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="F38" s="2" t="str">
         <f>_xll.qlSimpleQuote(E38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L40Y_Quote#0001</v>
+        <v>HKD3L6L40Y_Quote#0002</v>
       </c>
       <c r="G38" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="F39" s="2" t="str">
         <f>_xll.qlSimpleQuote(E39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L50Y_Quote#0001</v>
+        <v>HKD3L6L50Y_Quote#0002</v>
       </c>
       <c r="G39" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="F40" s="2" t="str">
         <f>_xll.qlSimpleQuote(E40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3L6L60Y_Quote#0001</v>
+        <v>HKD3L6L60Y_Quote#0002</v>
       </c>
       <c r="G40" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -3618,13 +3618,13 @@
         <f>Currency&amp;"_010_Sw"&amp;$C$7&amp;$D$7&amp;".xml"</f>
         <v>HKD_010_Sw6L12L.xml</v>
       </c>
-      <c r="F2" s="37" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G2" s="38" t="e">
+      <c r="F2" s="37">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,,Serialize),"---")</f>
+        <v>38</v>
+      </c>
+      <c r="G2" s="38" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H2" s="27"/>
     </row>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="F3" s="2" t="str">
         <f>_xll.qlSimpleQuote(E3,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L6M_Quote#0001</v>
+        <v>HKD6L12L6M_Quote#0002</v>
       </c>
       <c r="G3" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -3674,7 +3674,7 @@
       </c>
       <c r="F4" s="2" t="str">
         <f>_xll.qlSimpleQuote(E4,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L1Y_Quote#0001</v>
+        <v>HKD6L12L1Y_Quote#0002</v>
       </c>
       <c r="G4" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F5" s="2" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L15M_Quote#0001</v>
+        <v>HKD6L12L15M_Quote#0002</v>
       </c>
       <c r="G5" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="F6" s="2" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L18M_Quote#0001</v>
+        <v>HKD6L12L18M_Quote#0002</v>
       </c>
       <c r="G6" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="F7" s="2" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L21M_Quote#0001</v>
+        <v>HKD6L12L21M_Quote#0002</v>
       </c>
       <c r="G7" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="F8" s="2" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L2Y_Quote#0001</v>
+        <v>HKD6L12L2Y_Quote#0002</v>
       </c>
       <c r="G8" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="F9" s="2" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L3Y_Quote#0001</v>
+        <v>HKD6L12L3Y_Quote#0002</v>
       </c>
       <c r="G9" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -3854,7 +3854,7 @@
       </c>
       <c r="F10" s="2" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L4Y_Quote#0001</v>
+        <v>HKD6L12L4Y_Quote#0002</v>
       </c>
       <c r="G10" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="F11" s="2" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L5Y_Quote#0001</v>
+        <v>HKD6L12L5Y_Quote#0002</v>
       </c>
       <c r="G11" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="F12" s="2" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L6Y_Quote#0001</v>
+        <v>HKD6L12L6Y_Quote#0002</v>
       </c>
       <c r="G12" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="F13" s="2" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L7Y_Quote#0001</v>
+        <v>HKD6L12L7Y_Quote#0002</v>
       </c>
       <c r="G13" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="F14" s="2" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L8Y_Quote#0001</v>
+        <v>HKD6L12L8Y_Quote#0002</v>
       </c>
       <c r="G14" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="F15" s="2" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L9Y_Quote#0001</v>
+        <v>HKD6L12L9Y_Quote#0002</v>
       </c>
       <c r="G15" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="F16" s="2" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L10Y_Quote#0001</v>
+        <v>HKD6L12L10Y_Quote#0002</v>
       </c>
       <c r="G16" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -4070,7 +4070,7 @@
       </c>
       <c r="F17" s="2" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L11Y_Quote#0001</v>
+        <v>HKD6L12L11Y_Quote#0002</v>
       </c>
       <c r="G17" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="F18" s="2" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L12Y_Quote#0001</v>
+        <v>HKD6L12L12Y_Quote#0002</v>
       </c>
       <c r="G18" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -4124,7 +4124,7 @@
       </c>
       <c r="F19" s="2" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L13Y_Quote#0001</v>
+        <v>HKD6L12L13Y_Quote#0002</v>
       </c>
       <c r="G19" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="F20" s="2" t="str">
         <f>_xll.qlSimpleQuote(E20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L14Y_Quote#0001</v>
+        <v>HKD6L12L14Y_Quote#0002</v>
       </c>
       <c r="G20" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -4178,7 +4178,7 @@
       </c>
       <c r="F21" s="2" t="str">
         <f>_xll.qlSimpleQuote(E21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L15Y_Quote#0001</v>
+        <v>HKD6L12L15Y_Quote#0002</v>
       </c>
       <c r="G21" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="F22" s="2" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L16Y_Quote#0001</v>
+        <v>HKD6L12L16Y_Quote#0002</v>
       </c>
       <c r="G22" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -4232,7 +4232,7 @@
       </c>
       <c r="F23" s="2" t="str">
         <f>_xll.qlSimpleQuote(E23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L17Y_Quote#0001</v>
+        <v>HKD6L12L17Y_Quote#0002</v>
       </c>
       <c r="G23" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="F24" s="2" t="str">
         <f>_xll.qlSimpleQuote(E24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L18Y_Quote#0001</v>
+        <v>HKD6L12L18Y_Quote#0002</v>
       </c>
       <c r="G24" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="F25" s="2" t="str">
         <f>_xll.qlSimpleQuote(E25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L19Y_Quote#0001</v>
+        <v>HKD6L12L19Y_Quote#0002</v>
       </c>
       <c r="G25" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="F26" s="2" t="str">
         <f>_xll.qlSimpleQuote(E26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L20Y_Quote#0001</v>
+        <v>HKD6L12L20Y_Quote#0002</v>
       </c>
       <c r="G26" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -4340,7 +4340,7 @@
       </c>
       <c r="F27" s="2" t="str">
         <f>_xll.qlSimpleQuote(E27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L21Y_Quote#0001</v>
+        <v>HKD6L12L21Y_Quote#0002</v>
       </c>
       <c r="G27" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="F28" s="2" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L22Y_Quote#0001</v>
+        <v>HKD6L12L22Y_Quote#0002</v>
       </c>
       <c r="G28" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="F29" s="2" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L23Y_Quote#0001</v>
+        <v>HKD6L12L23Y_Quote#0002</v>
       </c>
       <c r="G29" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="F30" s="2" t="str">
         <f>_xll.qlSimpleQuote(E30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L24Y_Quote#0001</v>
+        <v>HKD6L12L24Y_Quote#0002</v>
       </c>
       <c r="G30" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="F31" s="2" t="str">
         <f>_xll.qlSimpleQuote(E31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L25Y_Quote#0001</v>
+        <v>HKD6L12L25Y_Quote#0002</v>
       </c>
       <c r="G31" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="F32" s="2" t="str">
         <f>_xll.qlSimpleQuote(E32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L26Y_Quote#0001</v>
+        <v>HKD6L12L26Y_Quote#0002</v>
       </c>
       <c r="G32" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="F33" s="2" t="str">
         <f>_xll.qlSimpleQuote(E33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L27Y_Quote#0001</v>
+        <v>HKD6L12L27Y_Quote#0002</v>
       </c>
       <c r="G33" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F34" s="2" t="str">
         <f>_xll.qlSimpleQuote(E34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L28Y_Quote#0001</v>
+        <v>HKD6L12L28Y_Quote#0002</v>
       </c>
       <c r="G34" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -4556,7 +4556,7 @@
       </c>
       <c r="F35" s="2" t="str">
         <f>_xll.qlSimpleQuote(E35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L29Y_Quote#0001</v>
+        <v>HKD6L12L29Y_Quote#0002</v>
       </c>
       <c r="G35" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="F36" s="2" t="str">
         <f>_xll.qlSimpleQuote(E36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L30Y_Quote#0001</v>
+        <v>HKD6L12L30Y_Quote#0002</v>
       </c>
       <c r="G36" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -4610,7 +4610,7 @@
       </c>
       <c r="F37" s="2" t="str">
         <f>_xll.qlSimpleQuote(E37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L35Y_Quote#0001</v>
+        <v>HKD6L12L35Y_Quote#0002</v>
       </c>
       <c r="G37" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="F38" s="2" t="str">
         <f>_xll.qlSimpleQuote(E38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L40Y_Quote#0001</v>
+        <v>HKD6L12L40Y_Quote#0002</v>
       </c>
       <c r="G38" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -4664,7 +4664,7 @@
       </c>
       <c r="F39" s="2" t="str">
         <f>_xll.qlSimpleQuote(E39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L50Y_Quote#0001</v>
+        <v>HKD6L12L50Y_Quote#0002</v>
       </c>
       <c r="G39" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -4691,7 +4691,7 @@
       </c>
       <c r="F40" s="2" t="str">
         <f>_xll.qlSimpleQuote(E40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6L12L60Y_Quote#0001</v>
+        <v>HKD6L12L60Y_Quote#0002</v>
       </c>
       <c r="G40" s="38" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
